--- a/app/static/excel/ori.xlsx
+++ b/app/static/excel/ori.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\xxoo'\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/app/static/excel/ori.xlsx
+++ b/app/static/excel/ori.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="123">
   <si>
     <t>學校名稱</t>
   </si>
@@ -393,39 +393,6 @@
   </si>
   <si>
     <t>5121-304009</t>
-  </si>
-  <si>
-    <t>1251-142006</t>
-  </si>
-  <si>
-    <t>5941-A05032</t>
-  </si>
-  <si>
-    <t>3531-C01026</t>
-  </si>
-  <si>
-    <t>3531-D01033</t>
-  </si>
-  <si>
-    <t>5121-302025</t>
-  </si>
-  <si>
-    <t>1251-141021</t>
-  </si>
-  <si>
-    <t>5661-B61022</t>
-  </si>
-  <si>
-    <t>3531-B01017</t>
-  </si>
-  <si>
-    <t>1251-142034</t>
-  </si>
-  <si>
-    <t>1251-101016</t>
-  </si>
-  <si>
-    <t>6771-102004</t>
   </si>
 </sst>
 </file>
@@ -824,7 +791,7 @@
   <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6618,719 +6585,257 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="4">
-        <v>78</v>
-      </c>
-      <c r="E90" s="4">
-        <v>12</v>
-      </c>
-      <c r="F90" s="4">
-        <v>81</v>
-      </c>
-      <c r="G90" s="4">
-        <v>13</v>
-      </c>
-      <c r="H90" s="4">
-        <v>80</v>
-      </c>
-      <c r="I90" s="4">
-        <v>13</v>
-      </c>
-      <c r="J90" s="4">
-        <v>77.5</v>
-      </c>
-      <c r="K90" s="4">
-        <v>13</v>
-      </c>
-      <c r="L90" s="4">
-        <v>76</v>
-      </c>
-      <c r="M90" s="4">
-        <v>13</v>
-      </c>
-      <c r="N90" s="4">
-        <v>64</v>
-      </c>
-      <c r="O90" s="4">
-        <v>392.5</v>
-      </c>
-      <c r="P90" s="4">
-        <v>546</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>89</v>
-      </c>
-      <c r="R90" s="4">
-        <v>60</v>
-      </c>
-      <c r="S90" s="4">
-        <v>18</v>
-      </c>
-      <c r="T90" s="4">
-        <v>70</v>
-      </c>
-      <c r="U90" s="4">
-        <v>11</v>
-      </c>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="4">
-        <v>66</v>
-      </c>
-      <c r="E91" s="4">
-        <v>10</v>
-      </c>
-      <c r="F91" s="4">
-        <v>81</v>
-      </c>
-      <c r="G91" s="4">
-        <v>13</v>
-      </c>
-      <c r="H91" s="4">
-        <v>72</v>
-      </c>
-      <c r="I91" s="4">
-        <v>11</v>
-      </c>
-      <c r="J91" s="4">
-        <v>85</v>
-      </c>
-      <c r="K91" s="4">
-        <v>14</v>
-      </c>
-      <c r="L91" s="4">
-        <v>78</v>
-      </c>
-      <c r="M91" s="4">
-        <v>13</v>
-      </c>
-      <c r="N91" s="4">
-        <v>61</v>
-      </c>
-      <c r="O91" s="4">
-        <v>382</v>
-      </c>
-      <c r="P91" s="4">
-        <v>545</v>
-      </c>
-      <c r="Q91" s="4">
-        <v>90</v>
-      </c>
-      <c r="R91" s="4">
-        <v>48</v>
-      </c>
-      <c r="S91" s="4">
-        <v>18</v>
-      </c>
-      <c r="T91" s="4">
-        <v>68</v>
-      </c>
-      <c r="U91" s="4">
-        <v>13</v>
-      </c>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="4">
-        <v>74</v>
-      </c>
-      <c r="E92" s="4">
-        <v>12</v>
-      </c>
-      <c r="F92" s="4">
-        <v>93</v>
-      </c>
-      <c r="G92" s="4">
-        <v>14</v>
-      </c>
-      <c r="H92" s="4">
-        <v>60</v>
-      </c>
-      <c r="I92" s="4">
-        <v>10</v>
-      </c>
-      <c r="J92" s="4">
-        <v>85</v>
-      </c>
-      <c r="K92" s="4">
-        <v>14</v>
-      </c>
-      <c r="L92" s="4">
-        <v>74</v>
-      </c>
-      <c r="M92" s="4">
-        <v>13</v>
-      </c>
-      <c r="N92" s="4">
-        <v>63</v>
-      </c>
-      <c r="O92" s="4">
-        <v>386</v>
-      </c>
-      <c r="P92" s="4">
-        <v>545</v>
-      </c>
-      <c r="Q92" s="4">
-        <v>91</v>
-      </c>
-      <c r="R92" s="4">
-        <v>58</v>
-      </c>
-      <c r="S92" s="4">
-        <v>16</v>
-      </c>
-      <c r="T92" s="4">
-        <v>80</v>
-      </c>
-      <c r="U92" s="4">
-        <v>13</v>
-      </c>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="4">
-        <v>74</v>
-      </c>
-      <c r="E93" s="4">
-        <v>12</v>
-      </c>
-      <c r="F93" s="4">
-        <v>78.75</v>
-      </c>
-      <c r="G93" s="4">
-        <v>12</v>
-      </c>
-      <c r="H93" s="4">
-        <v>88</v>
-      </c>
-      <c r="I93" s="4">
-        <v>14</v>
-      </c>
-      <c r="J93" s="4">
-        <v>80</v>
-      </c>
-      <c r="K93" s="4">
-        <v>13</v>
-      </c>
-      <c r="L93" s="4">
-        <v>72</v>
-      </c>
-      <c r="M93" s="4">
-        <v>12</v>
-      </c>
-      <c r="N93" s="4">
-        <v>63</v>
-      </c>
-      <c r="O93" s="4">
-        <v>392.75</v>
-      </c>
-      <c r="P93" s="4">
-        <v>544.75</v>
-      </c>
-      <c r="Q93" s="4">
-        <v>92</v>
-      </c>
-      <c r="R93" s="4">
-        <v>60</v>
-      </c>
-      <c r="S93" s="4">
-        <v>14</v>
-      </c>
-      <c r="T93" s="4">
-        <v>70</v>
-      </c>
-      <c r="U93" s="4">
-        <v>8.75</v>
-      </c>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="4">
-        <v>74</v>
-      </c>
-      <c r="E94" s="4">
-        <v>12</v>
-      </c>
-      <c r="F94" s="4">
-        <v>61</v>
-      </c>
-      <c r="G94" s="4">
-        <v>10</v>
-      </c>
-      <c r="H94" s="4">
-        <v>100</v>
-      </c>
-      <c r="I94" s="4">
-        <v>15</v>
-      </c>
-      <c r="J94" s="4">
-        <v>82.5</v>
-      </c>
-      <c r="K94" s="4">
-        <v>14</v>
-      </c>
-      <c r="L94" s="4">
-        <v>72</v>
-      </c>
-      <c r="M94" s="4">
-        <v>12</v>
-      </c>
-      <c r="N94" s="4">
-        <v>63</v>
-      </c>
-      <c r="O94" s="4">
-        <v>389.5</v>
-      </c>
-      <c r="P94" s="4">
-        <v>544</v>
-      </c>
-      <c r="Q94" s="4">
-        <v>93</v>
-      </c>
-      <c r="R94" s="4">
-        <v>58</v>
-      </c>
-      <c r="S94" s="4">
-        <v>16</v>
-      </c>
-      <c r="T94" s="4">
-        <v>50</v>
-      </c>
-      <c r="U94" s="4">
-        <v>11</v>
-      </c>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="4">
-        <v>70</v>
-      </c>
-      <c r="E95" s="4">
-        <v>11</v>
-      </c>
-      <c r="F95" s="4">
-        <v>94</v>
-      </c>
-      <c r="G95" s="4">
-        <v>15</v>
-      </c>
-      <c r="H95" s="4">
-        <v>68</v>
-      </c>
-      <c r="I95" s="4">
-        <v>11</v>
-      </c>
-      <c r="J95" s="4">
-        <v>80</v>
-      </c>
-      <c r="K95" s="4">
-        <v>13</v>
-      </c>
-      <c r="L95" s="4">
-        <v>76</v>
-      </c>
-      <c r="M95" s="4">
-        <v>13</v>
-      </c>
-      <c r="N95" s="4">
-        <v>63</v>
-      </c>
-      <c r="O95" s="4">
-        <v>388</v>
-      </c>
-      <c r="P95" s="4">
-        <v>544</v>
-      </c>
-      <c r="Q95" s="4">
-        <v>94</v>
-      </c>
-      <c r="R95" s="4">
-        <v>54</v>
-      </c>
-      <c r="S95" s="4">
-        <v>16</v>
-      </c>
-      <c r="T95" s="4">
-        <v>78</v>
-      </c>
-      <c r="U95" s="4">
-        <v>16</v>
-      </c>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="4">
-        <v>78</v>
-      </c>
-      <c r="E96" s="4">
-        <v>12</v>
-      </c>
-      <c r="F96" s="4">
-        <v>82.5</v>
-      </c>
-      <c r="G96" s="4">
-        <v>13</v>
-      </c>
-      <c r="H96" s="4">
-        <v>52</v>
-      </c>
-      <c r="I96" s="4">
-        <v>8</v>
-      </c>
-      <c r="J96" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="K96" s="4">
-        <v>14</v>
-      </c>
-      <c r="L96" s="4">
-        <v>78</v>
-      </c>
-      <c r="M96" s="4">
-        <v>13</v>
-      </c>
-      <c r="N96" s="4">
-        <v>60</v>
-      </c>
-      <c r="O96" s="4">
-        <v>378</v>
-      </c>
-      <c r="P96" s="4">
-        <v>543.5</v>
-      </c>
-      <c r="Q96" s="4">
-        <v>95</v>
-      </c>
-      <c r="R96" s="4">
-        <v>62</v>
-      </c>
-      <c r="S96" s="4">
-        <v>16</v>
-      </c>
-      <c r="T96" s="4">
-        <v>68</v>
-      </c>
-      <c r="U96" s="4">
-        <v>14.5</v>
-      </c>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="4">
-        <v>70</v>
-      </c>
-      <c r="E97" s="4">
-        <v>11</v>
-      </c>
-      <c r="F97" s="4">
-        <v>92.5</v>
-      </c>
-      <c r="G97" s="4">
-        <v>14</v>
-      </c>
-      <c r="H97" s="4">
-        <v>72</v>
-      </c>
-      <c r="I97" s="4">
-        <v>11</v>
-      </c>
-      <c r="J97" s="4">
-        <v>82.5</v>
-      </c>
-      <c r="K97" s="4">
-        <v>14</v>
-      </c>
-      <c r="L97" s="4">
-        <v>72</v>
-      </c>
-      <c r="M97" s="4">
-        <v>12</v>
-      </c>
-      <c r="N97" s="4">
-        <v>62</v>
-      </c>
-      <c r="O97" s="4">
-        <v>389</v>
-      </c>
-      <c r="P97" s="4">
-        <v>543.5</v>
-      </c>
-      <c r="Q97" s="4">
-        <v>96</v>
-      </c>
-      <c r="R97" s="4">
-        <v>54</v>
-      </c>
-      <c r="S97" s="4">
-        <v>16</v>
-      </c>
-      <c r="T97" s="4">
-        <v>78</v>
-      </c>
-      <c r="U97" s="4">
-        <v>14.5</v>
-      </c>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="4">
-        <v>80</v>
-      </c>
-      <c r="E98" s="4">
-        <v>13</v>
-      </c>
-      <c r="F98" s="4">
-        <v>86.5</v>
-      </c>
-      <c r="G98" s="4">
-        <v>13</v>
-      </c>
-      <c r="H98" s="4">
-        <v>72</v>
-      </c>
-      <c r="I98" s="4">
-        <v>11</v>
-      </c>
-      <c r="J98" s="4">
-        <v>72.5</v>
-      </c>
-      <c r="K98" s="4">
-        <v>12</v>
-      </c>
-      <c r="L98" s="4">
-        <v>80</v>
-      </c>
-      <c r="M98" s="4">
-        <v>14</v>
-      </c>
-      <c r="N98" s="4">
-        <v>63</v>
-      </c>
-      <c r="O98" s="4">
-        <v>391</v>
-      </c>
-      <c r="P98" s="4">
-        <v>543.5</v>
-      </c>
-      <c r="Q98" s="4">
-        <v>97</v>
-      </c>
-      <c r="R98" s="4">
-        <v>64</v>
-      </c>
-      <c r="S98" s="4">
-        <v>16</v>
-      </c>
-      <c r="T98" s="4">
-        <v>72</v>
-      </c>
-      <c r="U98" s="4">
-        <v>14.5</v>
-      </c>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="4">
-        <v>78</v>
-      </c>
-      <c r="E99" s="4">
-        <v>12</v>
-      </c>
-      <c r="F99" s="4">
-        <v>91</v>
-      </c>
-      <c r="G99" s="4">
-        <v>14</v>
-      </c>
-      <c r="H99" s="4">
-        <v>60</v>
-      </c>
-      <c r="I99" s="4">
-        <v>10</v>
-      </c>
-      <c r="J99" s="4">
-        <v>75</v>
-      </c>
-      <c r="K99" s="4">
-        <v>12</v>
-      </c>
-      <c r="L99" s="4">
-        <v>82</v>
-      </c>
-      <c r="M99" s="4">
-        <v>14</v>
-      </c>
-      <c r="N99" s="4">
-        <v>62</v>
-      </c>
-      <c r="O99" s="4">
-        <v>386</v>
-      </c>
-      <c r="P99" s="4">
-        <v>543</v>
-      </c>
-      <c r="Q99" s="4">
-        <v>98</v>
-      </c>
-      <c r="R99" s="4">
-        <v>62</v>
-      </c>
-      <c r="S99" s="4">
-        <v>16</v>
-      </c>
-      <c r="T99" s="4">
-        <v>78</v>
-      </c>
-      <c r="U99" s="4">
-        <v>13</v>
-      </c>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="4">
-        <v>78</v>
-      </c>
-      <c r="E100" s="4">
-        <v>12</v>
-      </c>
-      <c r="F100" s="4">
-        <v>77.75</v>
-      </c>
-      <c r="G100" s="4">
-        <v>12</v>
-      </c>
-      <c r="H100" s="4">
-        <v>92</v>
-      </c>
-      <c r="I100" s="4">
-        <v>14</v>
-      </c>
-      <c r="J100" s="4">
-        <v>77.5</v>
-      </c>
-      <c r="K100" s="4">
-        <v>13</v>
-      </c>
-      <c r="L100" s="4">
-        <v>70</v>
-      </c>
-      <c r="M100" s="4">
-        <v>12</v>
-      </c>
-      <c r="N100" s="4">
-        <v>63</v>
-      </c>
-      <c r="O100" s="4">
-        <v>395.25</v>
-      </c>
-      <c r="P100" s="4">
-        <v>542.75</v>
-      </c>
-      <c r="Q100" s="4">
-        <v>99</v>
-      </c>
-      <c r="R100" s="4">
-        <v>56</v>
-      </c>
-      <c r="S100" s="4">
-        <v>22</v>
-      </c>
-      <c r="T100" s="4">
-        <v>68</v>
-      </c>
-      <c r="U100" s="4">
-        <v>9.75</v>
-      </c>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
